--- a/data/view/AHP - コピー.xlsx
+++ b/data/view/AHP - コピー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midori/Documents/kyoto/network/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\OneDrive\ドキュメント\project_GALLERIA\研究\STUDY\data\view\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E366DFC-CA8D-B542-BDFB-7A767229C79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16940" yWindow="500" windowWidth="18860" windowHeight="20160" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="評価基準" sheetId="24" r:id="rId1"/>
@@ -43,6 +43,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -697,7 +705,7 @@
     <numFmt numFmtId="181" formatCode="0.00000000"/>
     <numFmt numFmtId="182" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2446,6 +2454,9 @@
     <xf numFmtId="0" fontId="16" fillId="25" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2456,9 +2467,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17163,23 +17171,23 @@
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" style="179"/>
+    <col min="3" max="6" width="8.875" style="179"/>
     <col min="7" max="7" width="11" style="179" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="15" width="8.83203125" style="179"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="15" width="8.875" style="179"/>
     <col min="16" max="16" width="9" style="179" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="36" width="8.1640625" customWidth="1"/>
-    <col min="62" max="62" width="9.83203125" customWidth="1"/>
+    <col min="23" max="23" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="36" width="8.125" customWidth="1"/>
+    <col min="62" max="62" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B2" s="187" t="s">
         <v>120</v>
       </c>
@@ -17200,7 +17208,7 @@
       <c r="Q2" s="187"/>
       <c r="R2" s="187"/>
     </row>
-    <row r="3" spans="2:37">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B3" s="107" t="s">
         <v>0</v>
       </c>
@@ -17250,7 +17258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:37">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
@@ -17304,7 +17312,7 @@
         <v>0.21551785040203658</v>
       </c>
     </row>
-    <row r="5" spans="2:37">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B5" s="102" t="s">
         <v>81</v>
       </c>
@@ -17363,7 +17371,7 @@
       <c r="Y5" s="165"/>
       <c r="Z5" s="165"/>
     </row>
-    <row r="6" spans="2:37">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B6" s="101" t="s">
         <v>75</v>
       </c>
@@ -17419,7 +17427,7 @@
       <c r="W6" s="165"/>
       <c r="Z6" s="165"/>
     </row>
-    <row r="7" spans="2:37">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B7" s="102" t="s">
         <v>76</v>
       </c>
@@ -17477,7 +17485,7 @@
       <c r="Y7" s="165"/>
       <c r="Z7" s="165"/>
     </row>
-    <row r="8" spans="2:37">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B8" s="101" t="s">
         <v>82</v>
       </c>
@@ -17535,7 +17543,7 @@
       <c r="Y8" s="165"/>
       <c r="Z8" s="165"/>
     </row>
-    <row r="9" spans="2:37">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B9" s="101"/>
       <c r="C9" s="99"/>
       <c r="D9" s="178"/>
@@ -17580,7 +17588,7 @@
       <c r="AJ9" s="183"/>
       <c r="AK9" s="183"/>
     </row>
-    <row r="10" spans="2:37">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.4">
       <c r="Q10" s="165"/>
       <c r="R10" s="165"/>
       <c r="S10" s="165"/>
@@ -17602,7 +17610,7 @@
       <c r="AJ10" s="183"/>
       <c r="AK10" s="183"/>
     </row>
-    <row r="11" spans="2:37">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B11" s="107" t="s">
         <v>4</v>
       </c>
@@ -17668,7 +17676,7 @@
       <c r="AJ11" s="183"/>
       <c r="AK11" s="183"/>
     </row>
-    <row r="12" spans="2:37">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B12" s="103" t="s">
         <v>10</v>
       </c>
@@ -17764,7 +17772,7 @@
       </c>
       <c r="AK12" s="183"/>
     </row>
-    <row r="13" spans="2:37">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B13" s="102" t="s">
         <v>81</v>
       </c>
@@ -17859,7 +17867,7 @@
       </c>
       <c r="AK13" s="183"/>
     </row>
-    <row r="14" spans="2:37">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B14" s="101" t="s">
         <v>75</v>
       </c>
@@ -17953,7 +17961,7 @@
       </c>
       <c r="AK14" s="183"/>
     </row>
-    <row r="15" spans="2:37">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B15" s="102" t="s">
         <v>76</v>
       </c>
@@ -18046,7 +18054,7 @@
       </c>
       <c r="AK15" s="183"/>
     </row>
-    <row r="16" spans="2:37">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B16" s="101" t="s">
         <v>82</v>
       </c>
@@ -18139,7 +18147,7 @@
       </c>
       <c r="AK16" s="183"/>
     </row>
-    <row r="17" spans="2:37">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B17" s="101"/>
       <c r="C17" s="99"/>
       <c r="D17" s="178"/>
@@ -18208,7 +18216,7 @@
       </c>
       <c r="AK17" s="183"/>
     </row>
-    <row r="18" spans="2:37">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W18" s="183"/>
       <c r="X18" s="183"/>
       <c r="Y18" s="183"/>
@@ -18225,7 +18233,7 @@
       <c r="AJ18" s="183"/>
       <c r="AK18" s="183"/>
     </row>
-    <row r="19" spans="2:37">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B19" s="107" t="s">
         <v>5</v>
       </c>
@@ -18314,7 +18322,7 @@
       </c>
       <c r="AK19" s="183"/>
     </row>
-    <row r="20" spans="2:37">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B20" s="103" t="s">
         <v>10</v>
       </c>
@@ -18407,7 +18415,7 @@
       </c>
       <c r="AK20" s="183"/>
     </row>
-    <row r="21" spans="2:37">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B21" s="102" t="s">
         <v>81</v>
       </c>
@@ -18500,7 +18508,7 @@
       </c>
       <c r="AK21" s="183"/>
     </row>
-    <row r="22" spans="2:37">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B22" s="101" t="s">
         <v>75</v>
       </c>
@@ -18593,7 +18601,7 @@
       </c>
       <c r="AK22" s="183"/>
     </row>
-    <row r="23" spans="2:37">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B23" s="102" t="s">
         <v>76</v>
       </c>
@@ -18686,7 +18694,7 @@
       </c>
       <c r="AK23" s="183"/>
     </row>
-    <row r="24" spans="2:37">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B24" s="101" t="s">
         <v>82</v>
       </c>
@@ -18779,7 +18787,7 @@
       </c>
       <c r="AK24" s="183"/>
     </row>
-    <row r="25" spans="2:37">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B25" s="101"/>
       <c r="C25" s="99"/>
       <c r="D25" s="178"/>
@@ -18824,7 +18832,7 @@
       <c r="AJ25" s="183"/>
       <c r="AK25" s="183"/>
     </row>
-    <row r="26" spans="2:37">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W26" s="183"/>
       <c r="X26" s="175" t="s">
         <v>5</v>
@@ -18865,7 +18873,7 @@
       </c>
       <c r="AK26" s="183"/>
     </row>
-    <row r="27" spans="2:37">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B27" s="107" t="s">
         <v>6</v>
       </c>
@@ -18954,7 +18962,7 @@
       </c>
       <c r="AK27" s="183"/>
     </row>
-    <row r="28" spans="2:37">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B28" s="103" t="s">
         <v>10</v>
       </c>
@@ -19047,7 +19055,7 @@
       </c>
       <c r="AK28" s="183"/>
     </row>
-    <row r="29" spans="2:37">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B29" s="102" t="s">
         <v>81</v>
       </c>
@@ -19140,7 +19148,7 @@
       </c>
       <c r="AK29" s="183"/>
     </row>
-    <row r="30" spans="2:37">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B30" s="101" t="s">
         <v>75</v>
       </c>
@@ -19233,7 +19241,7 @@
       </c>
       <c r="AK30" s="183"/>
     </row>
-    <row r="31" spans="2:37">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B31" s="102" t="s">
         <v>76</v>
       </c>
@@ -19326,7 +19334,7 @@
       </c>
       <c r="AK31" s="183"/>
     </row>
-    <row r="32" spans="2:37">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B32" s="101" t="s">
         <v>82</v>
       </c>
@@ -19395,7 +19403,7 @@
       <c r="AJ32" s="183"/>
       <c r="AK32" s="183"/>
     </row>
-    <row r="33" spans="2:37">
+    <row r="33" spans="2:37" x14ac:dyDescent="0.4">
       <c r="B33" s="101"/>
       <c r="C33" s="99"/>
       <c r="D33" s="178"/>
@@ -19464,7 +19472,7 @@
       </c>
       <c r="AK33" s="183"/>
     </row>
-    <row r="34" spans="2:37">
+    <row r="34" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W34" s="183"/>
       <c r="X34" s="184" t="s">
         <v>10</v>
@@ -19505,7 +19513,7 @@
       </c>
       <c r="AK34" s="183"/>
     </row>
-    <row r="35" spans="2:37">
+    <row r="35" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W35" s="183"/>
       <c r="X35" s="185" t="s">
         <v>81</v>
@@ -19546,7 +19554,7 @@
       </c>
       <c r="AK35" s="183"/>
     </row>
-    <row r="36" spans="2:37">
+    <row r="36" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W36" s="183"/>
       <c r="X36" s="186" t="s">
         <v>75</v>
@@ -19587,7 +19595,7 @@
       </c>
       <c r="AK36" s="183"/>
     </row>
-    <row r="37" spans="2:37">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W37" s="183"/>
       <c r="X37" s="185" t="s">
         <v>76</v>
@@ -19628,7 +19636,7 @@
       </c>
       <c r="AK37" s="183"/>
     </row>
-    <row r="38" spans="2:37">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W38" s="183"/>
       <c r="X38" s="186" t="s">
         <v>82</v>
@@ -19669,7 +19677,7 @@
       </c>
       <c r="AK38" s="183"/>
     </row>
-    <row r="39" spans="2:37">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W39" s="183"/>
       <c r="X39" s="183"/>
       <c r="Y39" s="183"/>
@@ -19686,7 +19694,7 @@
       <c r="AJ39" s="183"/>
       <c r="AK39" s="183"/>
     </row>
-    <row r="40" spans="2:37">
+    <row r="40" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W40" s="183"/>
       <c r="X40" s="183"/>
       <c r="Y40" s="183"/>
@@ -19703,7 +19711,7 @@
       <c r="AJ40" s="183"/>
       <c r="AK40" s="183"/>
     </row>
-    <row r="41" spans="2:37">
+    <row r="41" spans="2:37" x14ac:dyDescent="0.4">
       <c r="W41" s="183"/>
       <c r="X41" s="183"/>
       <c r="Y41" s="183"/>
@@ -19720,34 +19728,34 @@
       <c r="AJ41" s="183"/>
       <c r="AK41" s="183"/>
     </row>
-    <row r="47" spans="2:37">
+    <row r="47" spans="2:37" x14ac:dyDescent="0.4">
       <c r="K47" s="51"/>
     </row>
-    <row r="48" spans="2:37">
+    <row r="48" spans="2:37" x14ac:dyDescent="0.4">
       <c r="K48" s="51"/>
     </row>
-    <row r="49" spans="11:11">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K49" s="51"/>
     </row>
-    <row r="50" spans="11:11">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K50" s="51"/>
     </row>
-    <row r="51" spans="11:11">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K51" s="51"/>
     </row>
-    <row r="52" spans="11:11">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K52" s="51"/>
     </row>
-    <row r="53" spans="11:11">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K53" s="51"/>
     </row>
-    <row r="54" spans="11:11">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K54" s="51"/>
     </row>
-    <row r="55" spans="11:11">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K55" s="51"/>
     </row>
-    <row r="56" spans="11:11">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K56" s="51"/>
     </row>
   </sheetData>
@@ -19767,13 +19775,13 @@
       <selection activeCell="O3" sqref="O3:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>109</v>
       </c>
@@ -19817,7 +19825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -19867,7 +19875,7 @@
         <v>0.65585553881005709</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -19911,7 +19919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -19955,7 +19963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -19999,7 +20007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -20043,7 +20051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -20081,7 +20089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -20119,7 +20127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -20157,7 +20165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="56" customHeight="1">
+    <row r="11" spans="2:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>110</v>
       </c>
@@ -20199,7 +20207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="26">
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -20243,7 +20251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26">
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -20287,7 +20295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="26">
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -20331,7 +20339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="26">
+    <row r="15" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -20375,7 +20383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="26">
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -20419,7 +20427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -20457,7 +20465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -20495,7 +20503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -20533,7 +20541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -20571,7 +20579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -20609,7 +20617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -20647,7 +20655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -20685,7 +20693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -20723,7 +20731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -20761,7 +20769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -20799,7 +20807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -20837,7 +20845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
@@ -20878,13 +20886,13 @@
       <selection activeCell="O3" sqref="O3:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>78</v>
       </c>
@@ -20928,7 +20936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -20978,7 +20986,7 @@
         <v>0.68623364571456114</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -21022,7 +21030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -21066,7 +21074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -21110,7 +21118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -21154,7 +21162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -21192,7 +21200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -21230,7 +21238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -21268,7 +21276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="56" customHeight="1">
+    <row r="11" spans="2:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>108</v>
       </c>
@@ -21310,7 +21318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="26">
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -21354,7 +21362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26">
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -21398,7 +21406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="26">
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -21442,7 +21450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="26">
+    <row r="15" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -21486,7 +21494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="26">
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -21530,7 +21538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -21568,7 +21576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -21606,7 +21614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -21644,7 +21652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -21682,7 +21690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -21720,7 +21728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -21758,7 +21766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -21796,7 +21804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -21834,7 +21842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -21872,7 +21880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -21910,7 +21918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -21948,7 +21956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
@@ -21985,17 +21993,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31AC32E-CC8C-D245-8314-549E797439C5}">
   <dimension ref="B2:AN35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="T1" zoomScale="93" workbookViewId="0">
       <selection activeCell="AE4" sqref="AE4:AE28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:40">
-      <c r="C2" s="198" t="s">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.4">
+      <c r="C2" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="194"/>
       <c r="E2" s="91"/>
       <c r="G2" s="187" t="s">
         <v>4</v>
@@ -22026,7 +22034,7 @@
       </c>
       <c r="AF2" s="187"/>
     </row>
-    <row r="3" spans="2:40">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B3" s="38"/>
       <c r="C3" s="69" t="s">
         <v>59</v>
@@ -22100,7 +22108,7 @@
       </c>
       <c r="AN3" s="187"/>
     </row>
-    <row r="4" spans="2:40">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>18</v>
       </c>
@@ -22183,7 +22191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:40">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B5" s="48" t="s">
         <v>19</v>
       </c>
@@ -22262,7 +22270,7 @@
       <c r="AM5" s="115"/>
       <c r="AN5" s="116"/>
     </row>
-    <row r="6" spans="2:40">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B6" s="48" t="s">
         <v>42</v>
       </c>
@@ -22341,7 +22349,7 @@
       <c r="AM6" s="115"/>
       <c r="AN6" s="116"/>
     </row>
-    <row r="7" spans="2:40">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
         <v>20</v>
       </c>
@@ -22420,7 +22428,7 @@
       <c r="AM7" s="115"/>
       <c r="AN7" s="116"/>
     </row>
-    <row r="8" spans="2:40">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
         <v>21</v>
       </c>
@@ -22499,7 +22507,7 @@
       <c r="AM8" s="115"/>
       <c r="AN8" s="116"/>
     </row>
-    <row r="9" spans="2:40">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
         <v>41</v>
       </c>
@@ -22578,7 +22586,7 @@
       <c r="AM9" s="115"/>
       <c r="AN9" s="116"/>
     </row>
-    <row r="10" spans="2:40">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>22</v>
       </c>
@@ -22657,7 +22665,7 @@
       <c r="AM10" s="115"/>
       <c r="AN10" s="116"/>
     </row>
-    <row r="11" spans="2:40">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B11" s="48" t="s">
         <v>23</v>
       </c>
@@ -22736,7 +22744,7 @@
       <c r="AM11" s="115"/>
       <c r="AN11" s="116"/>
     </row>
-    <row r="12" spans="2:40">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B12" s="48" t="s">
         <v>24</v>
       </c>
@@ -22815,7 +22823,7 @@
       <c r="AM12" s="115"/>
       <c r="AN12" s="116"/>
     </row>
-    <row r="13" spans="2:40">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
         <v>25</v>
       </c>
@@ -22894,7 +22902,7 @@
       <c r="AM13" s="115"/>
       <c r="AN13" s="116"/>
     </row>
-    <row r="14" spans="2:40">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B14" s="48" t="s">
         <v>26</v>
       </c>
@@ -22973,7 +22981,7 @@
       <c r="AM14" s="115"/>
       <c r="AN14" s="116"/>
     </row>
-    <row r="15" spans="2:40">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
@@ -23052,7 +23060,7 @@
       <c r="AM15" s="115"/>
       <c r="AN15" s="116"/>
     </row>
-    <row r="16" spans="2:40">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B16" s="48" t="s">
         <v>28</v>
       </c>
@@ -23131,7 +23139,7 @@
       <c r="AM16" s="115"/>
       <c r="AN16" s="116"/>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B17" s="48" t="s">
         <v>29</v>
       </c>
@@ -23210,7 +23218,7 @@
       <c r="AM17" s="115"/>
       <c r="AN17" s="116"/>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
@@ -23289,7 +23297,7 @@
       <c r="AM18" s="115"/>
       <c r="AN18" s="116"/>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B19" s="48" t="s">
         <v>30</v>
       </c>
@@ -23368,7 +23376,7 @@
       <c r="AM19" s="115"/>
       <c r="AN19" s="116"/>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B20" s="48" t="s">
         <v>31</v>
       </c>
@@ -23447,7 +23455,7 @@
       <c r="AM20" s="115"/>
       <c r="AN20" s="116"/>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
@@ -23526,7 +23534,7 @@
       <c r="AM21" s="115"/>
       <c r="AN21" s="116"/>
     </row>
-    <row r="22" spans="2:40">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B22" s="48" t="s">
         <v>33</v>
       </c>
@@ -23605,7 +23613,7 @@
       <c r="AM22" s="115"/>
       <c r="AN22" s="116"/>
     </row>
-    <row r="23" spans="2:40">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
@@ -23684,7 +23692,7 @@
       <c r="AM23" s="115"/>
       <c r="AN23" s="116"/>
     </row>
-    <row r="24" spans="2:40">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B24" s="48" t="s">
         <v>35</v>
       </c>
@@ -23763,7 +23771,7 @@
       <c r="AM24" s="115"/>
       <c r="AN24" s="116"/>
     </row>
-    <row r="25" spans="2:40">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B25" s="48" t="s">
         <v>36</v>
       </c>
@@ -23842,7 +23850,7 @@
       <c r="AM25" s="115"/>
       <c r="AN25" s="116"/>
     </row>
-    <row r="26" spans="2:40">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B26" s="48" t="s">
         <v>37</v>
       </c>
@@ -23921,7 +23929,7 @@
       <c r="AM26" s="115"/>
       <c r="AN26" s="116"/>
     </row>
-    <row r="27" spans="2:40">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B27" s="48" t="s">
         <v>38</v>
       </c>
@@ -24000,7 +24008,7 @@
       <c r="AM27" s="115"/>
       <c r="AN27" s="116"/>
     </row>
-    <row r="28" spans="2:40">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B28" s="48" t="s">
         <v>39</v>
       </c>
@@ -24079,7 +24087,7 @@
       <c r="AM28" s="115"/>
       <c r="AN28" s="116"/>
     </row>
-    <row r="29" spans="2:40">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B29" s="93" t="s">
         <v>70</v>
       </c>
@@ -24142,7 +24150,7 @@
       <c r="AM29" s="115"/>
       <c r="AN29" s="116"/>
     </row>
-    <row r="30" spans="2:40">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.4">
       <c r="AL30" s="109" t="s">
         <v>70</v>
       </c>
@@ -24151,20 +24159,20 @@
       </c>
       <c r="AN30" s="111"/>
     </row>
-    <row r="33" spans="28:36">
-      <c r="AC33" s="194" t="s">
+    <row r="33" spans="28:36" x14ac:dyDescent="0.4">
+      <c r="AC33" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="AD33" s="195"/>
-      <c r="AE33" s="195"/>
-      <c r="AF33" s="195"/>
-      <c r="AG33" s="195"/>
-      <c r="AH33" s="195"/>
-      <c r="AI33" s="195"/>
-      <c r="AJ33" s="196"/>
-    </row>
-    <row r="34" spans="28:36">
-      <c r="AB34" s="194" t="s">
+      <c r="AD33" s="196"/>
+      <c r="AE33" s="196"/>
+      <c r="AF33" s="196"/>
+      <c r="AG33" s="196"/>
+      <c r="AH33" s="196"/>
+      <c r="AI33" s="196"/>
+      <c r="AJ33" s="197"/>
+    </row>
+    <row r="34" spans="28:36" x14ac:dyDescent="0.4">
+      <c r="AB34" s="195" t="s">
         <v>70</v>
       </c>
       <c r="AC34" s="117" t="s">
@@ -24192,8 +24200,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="28:36">
-      <c r="AB35" s="197"/>
+    <row r="35" spans="28:36" x14ac:dyDescent="0.4">
+      <c r="AB35" s="198"/>
       <c r="AC35" s="121">
         <f>北米!Q3</f>
         <v>0.68389686826036866</v>
@@ -24234,17 +24242,17 @@
     </sortState>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AC33:AJ33"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AC33:AJ33"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24261,13 +24269,13 @@
       <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="C2" s="198" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C2" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="194"/>
       <c r="E2" s="181"/>
       <c r="G2" s="187" t="s">
         <v>4</v>
@@ -24282,7 +24290,7 @@
       </c>
       <c r="P2" s="187"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="38"/>
       <c r="C3" s="69" t="s">
         <v>59</v>
@@ -24319,7 +24327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>18</v>
       </c>
@@ -24357,7 +24365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="48" t="s">
         <v>19</v>
       </c>
@@ -24395,7 +24403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="48" t="s">
         <v>42</v>
       </c>
@@ -24433,7 +24441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
         <v>20</v>
       </c>
@@ -24471,7 +24479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
         <v>21</v>
       </c>
@@ -24509,7 +24517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
         <v>41</v>
       </c>
@@ -24547,7 +24555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>22</v>
       </c>
@@ -24585,7 +24593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="48" t="s">
         <v>23</v>
       </c>
@@ -24623,7 +24631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="48" t="s">
         <v>24</v>
       </c>
@@ -24661,7 +24669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
         <v>25</v>
       </c>
@@ -24699,7 +24707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="48" t="s">
         <v>26</v>
       </c>
@@ -24737,7 +24745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
@@ -24775,7 +24783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="48" t="s">
         <v>28</v>
       </c>
@@ -24813,7 +24821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="48" t="s">
         <v>29</v>
       </c>
@@ -24851,7 +24859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
@@ -24889,7 +24897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B19" s="48" t="s">
         <v>30</v>
       </c>
@@ -24927,7 +24935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B20" s="48" t="s">
         <v>31</v>
       </c>
@@ -24965,7 +24973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
@@ -25003,7 +25011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B22" s="48" t="s">
         <v>33</v>
       </c>
@@ -25041,7 +25049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
@@ -25079,7 +25087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B24" s="48" t="s">
         <v>35</v>
       </c>
@@ -25117,7 +25125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="48" t="s">
         <v>36</v>
       </c>
@@ -25155,7 +25163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B26" s="48" t="s">
         <v>37</v>
       </c>
@@ -25193,7 +25201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="48" t="s">
         <v>38</v>
       </c>
@@ -25231,7 +25239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B28" s="48" t="s">
         <v>39</v>
       </c>
@@ -25269,7 +25277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C31" s="187" t="s">
         <v>63</v>
       </c>
@@ -25287,7 +25295,7 @@
       </c>
       <c r="P31" s="187"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="38" t="s">
         <v>63</v>
       </c>
@@ -25322,7 +25330,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="48" t="s">
         <v>18</v>
       </c>
@@ -25360,7 +25368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="48" t="s">
         <v>19</v>
       </c>
@@ -25398,7 +25406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B35" s="48" t="s">
         <v>42</v>
       </c>
@@ -25436,7 +25444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="48" t="s">
         <v>20</v>
       </c>
@@ -25474,7 +25482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="48" t="s">
         <v>21</v>
       </c>
@@ -25512,7 +25520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="48" t="s">
         <v>41</v>
       </c>
@@ -25550,7 +25558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="48" t="s">
         <v>22</v>
       </c>
@@ -25588,7 +25596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="48" t="s">
         <v>23</v>
       </c>
@@ -25626,7 +25634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" s="48" t="s">
         <v>24</v>
       </c>
@@ -25664,7 +25672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" s="48" t="s">
         <v>25</v>
       </c>
@@ -25702,7 +25710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B43" s="48" t="s">
         <v>26</v>
       </c>
@@ -25740,7 +25748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B44" s="48" t="s">
         <v>27</v>
       </c>
@@ -25778,7 +25786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B45" s="48" t="s">
         <v>28</v>
       </c>
@@ -25816,7 +25824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B46" s="48" t="s">
         <v>29</v>
       </c>
@@ -25854,7 +25862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" s="48" t="s">
         <v>40</v>
       </c>
@@ -25892,7 +25900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" s="48" t="s">
         <v>30</v>
       </c>
@@ -25930,7 +25938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="48" t="s">
         <v>31</v>
       </c>
@@ -25968,7 +25976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B50" s="48" t="s">
         <v>32</v>
       </c>
@@ -26006,7 +26014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="48" t="s">
         <v>33</v>
       </c>
@@ -26044,7 +26052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="48" t="s">
         <v>34</v>
       </c>
@@ -26082,7 +26090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="48" t="s">
         <v>35</v>
       </c>
@@ -26120,7 +26128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="48" t="s">
         <v>36</v>
       </c>
@@ -26158,7 +26166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="48" t="s">
         <v>37</v>
       </c>
@@ -26196,7 +26204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" s="48" t="s">
         <v>38</v>
       </c>
@@ -26234,7 +26242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B57" s="48" t="s">
         <v>39</v>
       </c>
@@ -26296,13 +26304,13 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:40">
-      <c r="C2" s="198" t="s">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.4">
+      <c r="C2" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="194"/>
       <c r="E2" s="174"/>
       <c r="G2" s="187" t="s">
         <v>4</v>
@@ -26333,7 +26341,7 @@
       </c>
       <c r="AF2" s="187"/>
     </row>
-    <row r="3" spans="2:40">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B3" s="38"/>
       <c r="C3" s="69" t="s">
         <v>59</v>
@@ -26407,7 +26415,7 @@
       </c>
       <c r="AN3" s="187"/>
     </row>
-    <row r="4" spans="2:40">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>18</v>
       </c>
@@ -26522,7 +26530,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:40">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B5" s="48" t="s">
         <v>19</v>
       </c>
@@ -26633,7 +26641,7 @@
       <c r="AM5" s="115"/>
       <c r="AN5" s="116"/>
     </row>
-    <row r="6" spans="2:40">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B6" s="48" t="s">
         <v>42</v>
       </c>
@@ -26744,7 +26752,7 @@
       <c r="AM6" s="115"/>
       <c r="AN6" s="116"/>
     </row>
-    <row r="7" spans="2:40">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
         <v>20</v>
       </c>
@@ -26855,7 +26863,7 @@
       <c r="AM7" s="115"/>
       <c r="AN7" s="116"/>
     </row>
-    <row r="8" spans="2:40">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
         <v>21</v>
       </c>
@@ -26966,7 +26974,7 @@
       <c r="AM8" s="115"/>
       <c r="AN8" s="116"/>
     </row>
-    <row r="9" spans="2:40">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
         <v>41</v>
       </c>
@@ -27077,7 +27085,7 @@
       <c r="AM9" s="115"/>
       <c r="AN9" s="116"/>
     </row>
-    <row r="10" spans="2:40">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>22</v>
       </c>
@@ -27188,7 +27196,7 @@
       <c r="AM10" s="115"/>
       <c r="AN10" s="116"/>
     </row>
-    <row r="11" spans="2:40">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B11" s="48" t="s">
         <v>23</v>
       </c>
@@ -27299,7 +27307,7 @@
       <c r="AM11" s="115"/>
       <c r="AN11" s="116"/>
     </row>
-    <row r="12" spans="2:40">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B12" s="48" t="s">
         <v>24</v>
       </c>
@@ -27410,7 +27418,7 @@
       <c r="AM12" s="115"/>
       <c r="AN12" s="116"/>
     </row>
-    <row r="13" spans="2:40">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
         <v>25</v>
       </c>
@@ -27521,7 +27529,7 @@
       <c r="AM13" s="115"/>
       <c r="AN13" s="116"/>
     </row>
-    <row r="14" spans="2:40">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B14" s="48" t="s">
         <v>26</v>
       </c>
@@ -27632,7 +27640,7 @@
       <c r="AM14" s="115"/>
       <c r="AN14" s="116"/>
     </row>
-    <row r="15" spans="2:40">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
@@ -27743,7 +27751,7 @@
       <c r="AM15" s="115"/>
       <c r="AN15" s="116"/>
     </row>
-    <row r="16" spans="2:40">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B16" s="48" t="s">
         <v>28</v>
       </c>
@@ -27854,7 +27862,7 @@
       <c r="AM16" s="115"/>
       <c r="AN16" s="116"/>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B17" s="48" t="s">
         <v>29</v>
       </c>
@@ -27965,7 +27973,7 @@
       <c r="AM17" s="115"/>
       <c r="AN17" s="116"/>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
@@ -28076,7 +28084,7 @@
       <c r="AM18" s="115"/>
       <c r="AN18" s="116"/>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B19" s="48" t="s">
         <v>30</v>
       </c>
@@ -28187,7 +28195,7 @@
       <c r="AM19" s="115"/>
       <c r="AN19" s="116"/>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B20" s="48" t="s">
         <v>31</v>
       </c>
@@ -28298,7 +28306,7 @@
       <c r="AM20" s="115"/>
       <c r="AN20" s="116"/>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
@@ -28409,7 +28417,7 @@
       <c r="AM21" s="115"/>
       <c r="AN21" s="116"/>
     </row>
-    <row r="22" spans="2:40">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B22" s="48" t="s">
         <v>33</v>
       </c>
@@ -28520,7 +28528,7 @@
       <c r="AM22" s="115"/>
       <c r="AN22" s="116"/>
     </row>
-    <row r="23" spans="2:40">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
@@ -28631,7 +28639,7 @@
       <c r="AM23" s="115"/>
       <c r="AN23" s="116"/>
     </row>
-    <row r="24" spans="2:40">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B24" s="48" t="s">
         <v>35</v>
       </c>
@@ -28742,7 +28750,7 @@
       <c r="AM24" s="115"/>
       <c r="AN24" s="116"/>
     </row>
-    <row r="25" spans="2:40">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B25" s="48" t="s">
         <v>36</v>
       </c>
@@ -28853,7 +28861,7 @@
       <c r="AM25" s="115"/>
       <c r="AN25" s="116"/>
     </row>
-    <row r="26" spans="2:40">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B26" s="48" t="s">
         <v>37</v>
       </c>
@@ -28964,7 +28972,7 @@
       <c r="AM26" s="115"/>
       <c r="AN26" s="116"/>
     </row>
-    <row r="27" spans="2:40">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B27" s="48" t="s">
         <v>38</v>
       </c>
@@ -29075,7 +29083,7 @@
       <c r="AM27" s="115"/>
       <c r="AN27" s="116"/>
     </row>
-    <row r="28" spans="2:40">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B28" s="48" t="s">
         <v>39</v>
       </c>
@@ -29186,7 +29194,7 @@
       <c r="AM28" s="115"/>
       <c r="AN28" s="116"/>
     </row>
-    <row r="29" spans="2:40">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B29" s="93" t="s">
         <v>70</v>
       </c>
@@ -29249,7 +29257,7 @@
       <c r="AM29" s="115"/>
       <c r="AN29" s="116"/>
     </row>
-    <row r="30" spans="2:40">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.4">
       <c r="AL30" s="109" t="s">
         <v>70</v>
       </c>
@@ -29258,7 +29266,7 @@
       </c>
       <c r="AN30" s="111"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B33" s="117" t="s">
         <v>0</v>
       </c>
@@ -29290,7 +29298,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="48" t="s">
         <v>18</v>
       </c>
@@ -29330,7 +29338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="48" t="s">
         <v>19</v>
       </c>
@@ -29370,7 +29378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="48" t="s">
         <v>42</v>
       </c>
@@ -29410,7 +29418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="48" t="s">
         <v>20</v>
       </c>
@@ -29450,7 +29458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="48" t="s">
         <v>21</v>
       </c>
@@ -29490,7 +29498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="48" t="s">
         <v>41</v>
       </c>
@@ -29530,7 +29538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="48" t="s">
         <v>22</v>
       </c>
@@ -29570,7 +29578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="48" t="s">
         <v>23</v>
       </c>
@@ -29610,7 +29618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="48" t="s">
         <v>24</v>
       </c>
@@ -29650,7 +29658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="48" t="s">
         <v>25</v>
       </c>
@@ -29690,7 +29698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="48" t="s">
         <v>26</v>
       </c>
@@ -29730,7 +29738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="48" t="s">
         <v>27</v>
       </c>
@@ -29770,7 +29778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="48" t="s">
         <v>28</v>
       </c>
@@ -29810,7 +29818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="48" t="s">
         <v>29</v>
       </c>
@@ -29850,7 +29858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="48" t="s">
         <v>40</v>
       </c>
@@ -29890,7 +29898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="48" t="s">
         <v>30</v>
       </c>
@@ -29930,7 +29938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="48" t="s">
         <v>31</v>
       </c>
@@ -29970,7 +29978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="48" t="s">
         <v>32</v>
       </c>
@@ -30010,7 +30018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="48" t="s">
         <v>33</v>
       </c>
@@ -30050,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="48" t="s">
         <v>34</v>
       </c>
@@ -30090,7 +30098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="48" t="s">
         <v>35</v>
       </c>
@@ -30130,7 +30138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="48" t="s">
         <v>36</v>
       </c>
@@ -30170,7 +30178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="48" t="s">
         <v>37</v>
       </c>
@@ -30210,7 +30218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="48" t="s">
         <v>38</v>
       </c>
@@ -30250,7 +30258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="48" t="s">
         <v>39</v>
       </c>
@@ -30316,15 +30324,15 @@
       <selection activeCell="AJ3" sqref="AJ3:AJ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="27" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="13.1640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="11.625" customWidth="1"/>
+    <col min="29" max="29" width="13.125" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="19" thickBot="1">
+    <row r="1" spans="2:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1">
         <v>3</v>
       </c>
@@ -30401,7 +30409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:36" ht="19" thickBot="1">
+    <row r="2" spans="2:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
@@ -30488,7 +30496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:36" ht="16" customHeight="1">
+    <row r="3" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="55" t="s">
         <v>18</v>
       </c>
@@ -30592,7 +30600,7 @@
         <v>6.2487370737340869E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:36" ht="20">
+    <row r="4" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B4" s="56" t="s">
         <v>19</v>
       </c>
@@ -30695,7 +30703,7 @@
         <v>2.7038889959773341E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:36" ht="20">
+    <row r="5" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="57" t="s">
         <v>42</v>
       </c>
@@ -30799,7 +30807,7 @@
         <v>5.6806049936963331E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:36" ht="20">
+    <row r="6" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="56" t="s">
         <v>20</v>
       </c>
@@ -30902,7 +30910,7 @@
         <v>3.2488466502742563E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:36" ht="20">
+    <row r="7" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="57" t="s">
         <v>21</v>
       </c>
@@ -31006,7 +31014,7 @@
         <v>0.12008621383259163</v>
       </c>
     </row>
-    <row r="8" spans="2:36" ht="20">
+    <row r="8" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="56" t="s">
         <v>41</v>
       </c>
@@ -31109,7 +31117,7 @@
         <v>3.6970993808140507E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:36" ht="20">
+    <row r="9" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="57" t="s">
         <v>22</v>
       </c>
@@ -31213,7 +31221,7 @@
         <v>5.7014808560667422E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:36" ht="20">
+    <row r="10" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="56" t="s">
         <v>23</v>
       </c>
@@ -31316,7 +31324,7 @@
         <v>5.7014808560667422E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:36" ht="20">
+    <row r="11" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="57" t="s">
         <v>24</v>
       </c>
@@ -31420,7 +31428,7 @@
         <v>2.7267920351207911E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="20">
+    <row r="12" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="56" t="s">
         <v>25</v>
       </c>
@@ -31523,7 +31531,7 @@
         <v>2.8549420693890541E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:36" ht="20">
+    <row r="13" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="57" t="s">
         <v>26</v>
       </c>
@@ -31627,7 +31635,7 @@
         <v>6.4861685664030208E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:36" ht="20">
+    <row r="14" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="56" t="s">
         <v>27</v>
       </c>
@@ -31730,7 +31738,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:36" ht="20">
+    <row r="15" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="57" t="s">
         <v>28</v>
       </c>
@@ -31834,7 +31842,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:36" ht="20">
+    <row r="16" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="56" t="s">
         <v>29</v>
       </c>
@@ -31937,7 +31945,7 @@
         <v>3.0455326264648162E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:36" ht="20">
+    <row r="17" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="57" t="s">
         <v>40</v>
       </c>
@@ -32041,7 +32049,7 @@
         <v>1.9367182084281374E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:36" ht="20">
+    <row r="18" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="56" t="s">
         <v>30</v>
       </c>
@@ -32144,7 +32152,7 @@
         <v>5.9572777504053702E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:36" ht="20">
+    <row r="19" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="57" t="s">
         <v>31</v>
       </c>
@@ -32248,7 +32256,7 @@
         <v>2.0142180360787174E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:36" ht="20">
+    <row r="20" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="56" t="s">
         <v>32</v>
       </c>
@@ -32351,7 +32359,7 @@
         <v>2.8158036924280792E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="20">
+    <row r="21" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="57" t="s">
         <v>33</v>
       </c>
@@ -32455,7 +32463,7 @@
         <v>2.7038889959773341E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:36" ht="20">
+    <row r="22" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="56" t="s">
         <v>34</v>
       </c>
@@ -32558,7 +32566,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:36" ht="20">
+    <row r="23" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="57" t="s">
         <v>35</v>
       </c>
@@ -32662,7 +32670,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:36" ht="20">
+    <row r="24" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="56" t="s">
         <v>36</v>
       </c>
@@ -32765,7 +32773,7 @@
         <v>2.6088404580157713E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="20">
+    <row r="25" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="57" t="s">
         <v>37</v>
       </c>
@@ -32869,7 +32877,7 @@
         <v>2.0142180360787174E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:36" ht="20">
+    <row r="26" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="56" t="s">
         <v>38</v>
       </c>
@@ -32972,7 +32980,7 @@
         <v>2.6088404580157713E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:36" ht="21" thickBot="1">
+    <row r="27" spans="2:36" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="58" t="s">
         <v>39</v>
       </c>
@@ -33076,7 +33084,7 @@
         <v>0.11349648446046036</v>
       </c>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.4">
       <c r="AC28" s="60">
         <f>SUM(AC3:AC27)</f>
         <v>119.91074420486594</v>
@@ -33086,10 +33094,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.4">
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="2:36" ht="20">
+    <row r="30" spans="2:36" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B30" s="168" t="s">
         <v>87</v>
       </c>
@@ -33175,7 +33183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B31" s="171" t="s">
         <v>18</v>
       </c>
@@ -33263,7 +33271,7 @@
         <v>5.0925722086783809E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B32" s="172" t="s">
         <v>19</v>
       </c>
@@ -33351,7 +33359,7 @@
         <v>5.3113289553218077E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:30">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B33" s="171" t="s">
         <v>42</v>
       </c>
@@ -33439,7 +33447,7 @@
         <v>2.6217868320743565E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:30">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B34" s="172" t="s">
         <v>20</v>
       </c>
@@ -33527,7 +33535,7 @@
         <v>9.3399757625699225E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:30">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B35" s="171" t="s">
         <v>21</v>
       </c>
@@ -33615,7 +33623,7 @@
         <v>4.9977072423319668E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:30">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B36" s="172" t="s">
         <v>41</v>
       </c>
@@ -33703,7 +33711,7 @@
         <v>5.5125674370165474E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:30">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B37" s="171" t="s">
         <v>22</v>
       </c>
@@ -33791,7 +33799,7 @@
         <v>4.9977072423319668E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:30">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B38" s="172" t="s">
         <v>23</v>
       </c>
@@ -33879,7 +33887,7 @@
         <v>4.9977072423319668E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:30">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B39" s="171" t="s">
         <v>24</v>
       </c>
@@ -33967,7 +33975,7 @@
         <v>5.3113289553218077E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B40" s="172" t="s">
         <v>25</v>
       </c>
@@ -34055,7 +34063,7 @@
         <v>1.4101529483015799E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:30">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B41" s="171" t="s">
         <v>26</v>
       </c>
@@ -34143,7 +34151,7 @@
         <v>6.3463480399395991E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:30">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B42" s="172" t="s">
         <v>27</v>
       </c>
@@ -34231,7 +34239,7 @@
         <v>5.2558434446051995E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B43" s="171" t="s">
         <v>28</v>
       </c>
@@ -34319,7 +34327,7 @@
         <v>5.2558434446051995E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B44" s="172" t="s">
         <v>29</v>
       </c>
@@ -34407,7 +34415,7 @@
         <v>9.3399757625699225E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:30">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B45" s="171" t="s">
         <v>40</v>
       </c>
@@ -34495,7 +34503,7 @@
         <v>2.6217868320743565E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B46" s="172" t="s">
         <v>30</v>
       </c>
@@ -34583,7 +34591,7 @@
         <v>5.2558434446051995E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B47" s="171" t="s">
         <v>31</v>
       </c>
@@ -34671,7 +34679,7 @@
         <v>4.9977072423319668E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B48" s="172" t="s">
         <v>32</v>
       </c>
@@ -34759,7 +34767,7 @@
         <v>1.4101529483015799E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:30">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B49" s="171" t="s">
         <v>33</v>
       </c>
@@ -34847,7 +34855,7 @@
         <v>9.3399757625699225E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:30">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B50" s="172" t="s">
         <v>34</v>
       </c>
@@ -34935,7 +34943,7 @@
         <v>1.4101529483015799E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:30">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B51" s="171" t="s">
         <v>35</v>
       </c>
@@ -35023,7 +35031,7 @@
         <v>5.5125674370165474E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:30">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B52" s="172" t="s">
         <v>36</v>
       </c>
@@ -35111,7 +35119,7 @@
         <v>1.4101529483015799E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:30">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B53" s="171" t="s">
         <v>37</v>
       </c>
@@ -35199,7 +35207,7 @@
         <v>6.3463480399395991E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:30">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B54" s="172" t="s">
         <v>38</v>
       </c>
@@ -35287,7 +35295,7 @@
         <v>5.2558434446051995E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:30">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B55" s="173" t="s">
         <v>39</v>
       </c>
@@ -35375,7 +35383,7 @@
         <v>5.8665579928910354E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:30">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC56" s="61">
         <f>SUM(AC31:AC55)</f>
         <v>107.06665899578812</v>
@@ -35385,12 +35393,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:30">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:30" ht="20">
+    <row r="58" spans="2:30" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>84</v>
       </c>
@@ -35476,7 +35484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:30">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B59" s="14" t="s">
         <v>18</v>
       </c>
@@ -35564,7 +35572,7 @@
         <v>2.028736917457576E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:30">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B60" s="15" t="s">
         <v>19</v>
       </c>
@@ -35652,7 +35660,7 @@
         <v>6.484514084469542E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:30">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B61" s="14" t="s">
         <v>42</v>
       </c>
@@ -35740,7 +35748,7 @@
         <v>4.8282159500300112E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:30">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B62" s="15" t="s">
         <v>20</v>
       </c>
@@ -35828,7 +35836,7 @@
         <v>3.5353653733550663E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:30">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B63" s="14" t="s">
         <v>21</v>
       </c>
@@ -35916,7 +35924,7 @@
         <v>4.19812323523975E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:30">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B64" s="15" t="s">
         <v>41</v>
       </c>
@@ -36004,7 +36012,7 @@
         <v>2.6934393094573794E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:30">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B65" s="14" t="s">
         <v>22</v>
       </c>
@@ -36092,7 +36100,7 @@
         <v>3.5031808434484044E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:30">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B66" s="15" t="s">
         <v>23</v>
       </c>
@@ -36180,7 +36188,7 @@
         <v>4.8282159500300112E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:30">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B67" s="14" t="s">
         <v>24</v>
       </c>
@@ -36268,7 +36276,7 @@
         <v>4.0152722334170748E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:30">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B68" s="15" t="s">
         <v>25</v>
       </c>
@@ -36356,7 +36364,7 @@
         <v>3.5353653733550663E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:30">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B69" s="14" t="s">
         <v>26</v>
       </c>
@@ -36444,7 +36452,7 @@
         <v>3.6905190152115061E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:30">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B70" s="15" t="s">
         <v>27</v>
       </c>
@@ -36532,7 +36540,7 @@
         <v>5.0980227935992946E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:30">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B71" s="14" t="s">
         <v>28</v>
       </c>
@@ -36620,7 +36628,7 @@
         <v>5.5663623418082162E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:30">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B72" s="15" t="s">
         <v>29</v>
       </c>
@@ -36708,7 +36716,7 @@
         <v>2.8260681322158535E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:30">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B73" s="14" t="s">
         <v>40</v>
       </c>
@@ -36796,7 +36804,7 @@
         <v>2.8260681322158535E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:30">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B74" s="15" t="s">
         <v>30</v>
       </c>
@@ -36884,7 +36892,7 @@
         <v>5.5663623418082162E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:30">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B75" s="14" t="s">
         <v>31</v>
       </c>
@@ -36972,7 +36980,7 @@
         <v>3.306304186834718E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:30">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B76" s="15" t="s">
         <v>32</v>
       </c>
@@ -37060,7 +37068,7 @@
         <v>9.7531498248998854E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:30">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B77" s="14" t="s">
         <v>33</v>
       </c>
@@ -37148,7 +37156,7 @@
         <v>5.6119590100905316E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:30">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B78" s="15" t="s">
         <v>34</v>
       </c>
@@ -37236,7 +37244,7 @@
         <v>4.0152722334170748E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:30">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B79" s="14" t="s">
         <v>35</v>
       </c>
@@ -37324,7 +37332,7 @@
         <v>2.8701871226954008E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:30">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B80" s="15" t="s">
         <v>36</v>
       </c>
@@ -37412,7 +37420,7 @@
         <v>4.0152722334170748E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:30">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B81" s="14" t="s">
         <v>37</v>
       </c>
@@ -37500,7 +37508,7 @@
         <v>3.8571567474029109E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:30">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B82" s="15" t="s">
         <v>38</v>
       </c>
@@ -37588,7 +37596,7 @@
         <v>5.69466109504339E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:30">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B83" s="16" t="s">
         <v>39</v>
       </c>
@@ -37676,7 +37684,7 @@
         <v>4.4300403614900896E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:30">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC84" s="61">
         <f>SUM(AC59:AC83)</f>
         <v>102.53097901223566</v>
@@ -37686,12 +37694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:30">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:30" ht="20">
+    <row r="86" spans="2:30" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B86" s="18" t="s">
         <v>88</v>
       </c>
@@ -37777,7 +37785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:30">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B87" s="21" t="s">
         <v>18</v>
       </c>
@@ -37865,7 +37873,7 @@
         <v>8.6902909565851519E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:30">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B88" s="23" t="s">
         <v>19</v>
       </c>
@@ -37953,7 +37961,7 @@
         <v>6.4464779343368472E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:30">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B89" s="21" t="s">
         <v>42</v>
       </c>
@@ -38041,7 +38049,7 @@
         <v>8.6902909565851519E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:30">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B90" s="23" t="s">
         <v>20</v>
       </c>
@@ -38129,7 +38137,7 @@
         <v>4.1866808514364848E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:30">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B91" s="21" t="s">
         <v>21</v>
       </c>
@@ -38217,7 +38225,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:30">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B92" s="23" t="s">
         <v>41</v>
       </c>
@@ -38305,7 +38313,7 @@
         <v>0.10355146371839426</v>
       </c>
     </row>
-    <row r="93" spans="2:30">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B93" s="21" t="s">
         <v>22</v>
       </c>
@@ -38393,7 +38401,7 @@
         <v>6.4464779343368472E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:30">
+    <row r="94" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B94" s="23" t="s">
         <v>23</v>
       </c>
@@ -38481,7 +38489,7 @@
         <v>6.4464779343368472E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:30">
+    <row r="95" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B95" s="21" t="s">
         <v>24</v>
       </c>
@@ -38569,7 +38577,7 @@
         <v>4.1866808514364848E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:30">
+    <row r="96" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B96" s="23" t="s">
         <v>25</v>
       </c>
@@ -38657,7 +38665,7 @@
         <v>4.1866808514364848E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:30">
+    <row r="97" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B97" s="21" t="s">
         <v>26</v>
       </c>
@@ -38745,7 +38753,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:30">
+    <row r="98" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B98" s="23" t="s">
         <v>27</v>
       </c>
@@ -38833,7 +38841,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:30">
+    <row r="99" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B99" s="21" t="s">
         <v>28</v>
       </c>
@@ -38921,7 +38929,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:30">
+    <row r="100" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B100" s="23" t="s">
         <v>29</v>
       </c>
@@ -39009,7 +39017,7 @@
         <v>4.1866808514364848E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:30">
+    <row r="101" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B101" s="21" t="s">
         <v>40</v>
       </c>
@@ -39097,7 +39105,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:30">
+    <row r="102" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B102" s="23" t="s">
         <v>30</v>
       </c>
@@ -39185,7 +39193,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:30">
+    <row r="103" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B103" s="21" t="s">
         <v>31</v>
       </c>
@@ -39273,7 +39281,7 @@
         <v>8.6902909565851519E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:30">
+    <row r="104" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B104" s="23" t="s">
         <v>32</v>
       </c>
@@ -39361,7 +39369,7 @@
         <v>4.1866808514364848E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:30">
+    <row r="105" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B105" s="21" t="s">
         <v>33</v>
       </c>
@@ -39449,7 +39457,7 @@
         <v>4.1866808514364848E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:30">
+    <row r="106" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B106" s="23" t="s">
         <v>34</v>
       </c>
@@ -39537,7 +39545,7 @@
         <v>4.1866808514364848E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:30">
+    <row r="107" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B107" s="21" t="s">
         <v>35</v>
       </c>
@@ -39625,7 +39633,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:30">
+    <row r="108" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B108" s="23" t="s">
         <v>36</v>
       </c>
@@ -39713,7 +39721,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:30">
+    <row r="109" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B109" s="21" t="s">
         <v>37</v>
       </c>
@@ -39801,7 +39809,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:30">
+    <row r="110" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B110" s="23" t="s">
         <v>38</v>
       </c>
@@ -39889,7 +39897,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:30">
+    <row r="111" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B111" s="25" t="s">
         <v>39</v>
       </c>
@@ -39977,7 +39985,7 @@
         <v>1.3570709995762886E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:30">
+    <row r="112" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC112" s="61">
         <f>SUM(AC87:AC111)</f>
         <v>73.688112140943616</v>
@@ -39987,12 +39995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:30">
+    <row r="113" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB113" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:30" ht="20">
+    <row r="114" spans="2:30" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B114" s="44" t="s">
         <v>89</v>
       </c>
@@ -40078,7 +40086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:30">
+    <row r="115" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B115" s="30" t="s">
         <v>18</v>
       </c>
@@ -40166,7 +40174,7 @@
         <v>6.2487370737340869E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:30">
+    <row r="116" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B116" s="31" t="s">
         <v>19</v>
       </c>
@@ -40254,7 +40262,7 @@
         <v>2.7038889959773341E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:30">
+    <row r="117" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B117" s="30" t="s">
         <v>42</v>
       </c>
@@ -40342,7 +40350,7 @@
         <v>5.6806049936963331E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:30">
+    <row r="118" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B118" s="31" t="s">
         <v>20</v>
       </c>
@@ -40430,7 +40438,7 @@
         <v>3.2488466502742563E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:30">
+    <row r="119" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B119" s="30" t="s">
         <v>21</v>
       </c>
@@ -40518,7 +40526,7 @@
         <v>0.12008621383259163</v>
       </c>
     </row>
-    <row r="120" spans="2:30">
+    <row r="120" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B120" s="31" t="s">
         <v>41</v>
       </c>
@@ -40606,7 +40614,7 @@
         <v>3.6970993808140507E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:30">
+    <row r="121" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B121" s="30" t="s">
         <v>22</v>
       </c>
@@ -40694,7 +40702,7 @@
         <v>5.7014808560667422E-2</v>
       </c>
     </row>
-    <row r="122" spans="2:30">
+    <row r="122" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B122" s="31" t="s">
         <v>23</v>
       </c>
@@ -40782,7 +40790,7 @@
         <v>5.7014808560667422E-2</v>
       </c>
     </row>
-    <row r="123" spans="2:30">
+    <row r="123" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B123" s="30" t="s">
         <v>24</v>
       </c>
@@ -40870,7 +40878,7 @@
         <v>2.7267920351207911E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:30">
+    <row r="124" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B124" s="31" t="s">
         <v>25</v>
       </c>
@@ -40958,7 +40966,7 @@
         <v>2.8549420693890541E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:30">
+    <row r="125" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B125" s="30" t="s">
         <v>26</v>
       </c>
@@ -41046,7 +41054,7 @@
         <v>6.4861685664030208E-2</v>
       </c>
     </row>
-    <row r="126" spans="2:30">
+    <row r="126" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B126" s="31" t="s">
         <v>27</v>
       </c>
@@ -41134,7 +41142,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:30">
+    <row r="127" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B127" s="30" t="s">
         <v>28</v>
       </c>
@@ -41222,7 +41230,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="128" spans="2:30">
+    <row r="128" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B128" s="31" t="s">
         <v>29</v>
       </c>
@@ -41310,7 +41318,7 @@
         <v>3.0455326264648162E-2</v>
       </c>
     </row>
-    <row r="129" spans="2:30">
+    <row r="129" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B129" s="30" t="s">
         <v>40</v>
       </c>
@@ -41398,7 +41406,7 @@
         <v>1.9367182084281374E-2</v>
       </c>
     </row>
-    <row r="130" spans="2:30">
+    <row r="130" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B130" s="31" t="s">
         <v>30</v>
       </c>
@@ -41486,7 +41494,7 @@
         <v>5.9572777504053702E-2</v>
       </c>
     </row>
-    <row r="131" spans="2:30">
+    <row r="131" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B131" s="30" t="s">
         <v>31</v>
       </c>
@@ -41574,7 +41582,7 @@
         <v>2.0142180360787174E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:30">
+    <row r="132" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B132" s="31" t="s">
         <v>32</v>
       </c>
@@ -41662,7 +41670,7 @@
         <v>2.8158036924280792E-2</v>
       </c>
     </row>
-    <row r="133" spans="2:30">
+    <row r="133" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B133" s="30" t="s">
         <v>33</v>
       </c>
@@ -41750,7 +41758,7 @@
         <v>2.7038889959773341E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:30">
+    <row r="134" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B134" s="31" t="s">
         <v>34</v>
       </c>
@@ -41838,7 +41846,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="135" spans="2:30">
+    <row r="135" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B135" s="30" t="s">
         <v>35</v>
       </c>
@@ -41926,7 +41934,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:30">
+    <row r="136" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B136" s="31" t="s">
         <v>36</v>
       </c>
@@ -42014,7 +42022,7 @@
         <v>2.6088404580157713E-2</v>
       </c>
     </row>
-    <row r="137" spans="2:30">
+    <row r="137" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B137" s="30" t="s">
         <v>37</v>
       </c>
@@ -42102,7 +42110,7 @@
         <v>2.0142180360787174E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:30">
+    <row r="138" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B138" s="31" t="s">
         <v>38</v>
       </c>
@@ -42190,7 +42198,7 @@
         <v>2.6088404580157713E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:30">
+    <row r="139" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B139" s="36" t="s">
         <v>39</v>
       </c>
@@ -42278,7 +42286,7 @@
         <v>0.11349648446046036</v>
       </c>
     </row>
-    <row r="140" spans="2:30">
+    <row r="140" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC140" s="60">
         <f>SUM(AC115:AC139)</f>
         <v>67.953820397064021</v>
@@ -42288,391 +42296,391 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:30">
+    <row r="141" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC141"/>
     </row>
-    <row r="142" spans="2:30">
+    <row r="142" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC142"/>
     </row>
-    <row r="143" spans="2:30">
+    <row r="143" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC143"/>
     </row>
-    <row r="144" spans="2:30">
+    <row r="144" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AC144"/>
     </row>
-    <row r="145" spans="29:29">
+    <row r="145" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC145"/>
     </row>
-    <row r="146" spans="29:29">
+    <row r="146" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC146"/>
     </row>
-    <row r="147" spans="29:29">
+    <row r="147" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC147"/>
     </row>
-    <row r="148" spans="29:29">
+    <row r="148" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC148"/>
     </row>
-    <row r="149" spans="29:29">
+    <row r="149" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC149"/>
     </row>
-    <row r="150" spans="29:29">
+    <row r="150" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC150"/>
     </row>
-    <row r="151" spans="29:29">
+    <row r="151" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC151"/>
     </row>
-    <row r="152" spans="29:29">
+    <row r="152" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC152"/>
     </row>
-    <row r="153" spans="29:29">
+    <row r="153" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC153"/>
     </row>
-    <row r="154" spans="29:29">
+    <row r="154" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC154"/>
     </row>
-    <row r="155" spans="29:29">
+    <row r="155" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC155"/>
     </row>
-    <row r="156" spans="29:29">
+    <row r="156" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC156"/>
     </row>
-    <row r="157" spans="29:29">
+    <row r="157" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC157"/>
     </row>
-    <row r="158" spans="29:29">
+    <row r="158" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC158"/>
     </row>
-    <row r="159" spans="29:29">
+    <row r="159" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC159"/>
     </row>
-    <row r="160" spans="29:29">
+    <row r="160" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC160"/>
     </row>
-    <row r="161" spans="29:29">
+    <row r="161" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC161"/>
     </row>
-    <row r="162" spans="29:29">
+    <row r="162" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC162"/>
     </row>
-    <row r="163" spans="29:29">
+    <row r="163" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC163"/>
     </row>
-    <row r="164" spans="29:29">
+    <row r="164" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC164"/>
     </row>
-    <row r="165" spans="29:29">
+    <row r="165" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC165"/>
     </row>
-    <row r="166" spans="29:29">
+    <row r="166" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC166"/>
     </row>
-    <row r="167" spans="29:29">
+    <row r="167" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC167"/>
     </row>
-    <row r="168" spans="29:29">
+    <row r="168" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC168"/>
     </row>
-    <row r="169" spans="29:29">
+    <row r="169" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC169"/>
     </row>
-    <row r="170" spans="29:29">
+    <row r="170" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC170"/>
     </row>
-    <row r="171" spans="29:29">
+    <row r="171" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC171"/>
     </row>
-    <row r="172" spans="29:29">
+    <row r="172" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC172"/>
     </row>
-    <row r="173" spans="29:29">
+    <row r="173" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC173"/>
     </row>
-    <row r="174" spans="29:29">
+    <row r="174" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC174"/>
     </row>
-    <row r="175" spans="29:29">
+    <row r="175" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC175"/>
     </row>
-    <row r="176" spans="29:29">
+    <row r="176" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC176"/>
     </row>
-    <row r="177" spans="29:29">
+    <row r="177" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC177"/>
     </row>
-    <row r="178" spans="29:29">
+    <row r="178" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC178"/>
     </row>
-    <row r="179" spans="29:29">
+    <row r="179" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC179"/>
     </row>
-    <row r="180" spans="29:29">
+    <row r="180" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC180"/>
     </row>
-    <row r="181" spans="29:29">
+    <row r="181" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC181"/>
     </row>
-    <row r="182" spans="29:29">
+    <row r="182" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC182"/>
     </row>
-    <row r="183" spans="29:29">
+    <row r="183" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC183"/>
     </row>
-    <row r="184" spans="29:29">
+    <row r="184" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC184"/>
     </row>
-    <row r="185" spans="29:29">
+    <row r="185" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC185"/>
     </row>
-    <row r="186" spans="29:29">
+    <row r="186" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC186"/>
     </row>
-    <row r="187" spans="29:29">
+    <row r="187" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC187"/>
     </row>
-    <row r="188" spans="29:29">
+    <row r="188" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC188"/>
     </row>
-    <row r="189" spans="29:29">
+    <row r="189" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC189"/>
     </row>
-    <row r="190" spans="29:29">
+    <row r="190" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC190"/>
     </row>
-    <row r="191" spans="29:29">
+    <row r="191" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC191"/>
     </row>
-    <row r="192" spans="29:29">
+    <row r="192" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC192"/>
     </row>
-    <row r="193" spans="29:29">
+    <row r="193" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC193"/>
     </row>
-    <row r="194" spans="29:29">
+    <row r="194" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC194"/>
     </row>
-    <row r="195" spans="29:29">
+    <row r="195" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC195"/>
     </row>
-    <row r="196" spans="29:29" ht="17" customHeight="1">
+    <row r="196" spans="29:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AC196"/>
     </row>
-    <row r="197" spans="29:29">
+    <row r="197" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC197"/>
     </row>
-    <row r="198" spans="29:29">
+    <row r="198" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC198"/>
     </row>
-    <row r="199" spans="29:29">
+    <row r="199" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC199"/>
     </row>
-    <row r="200" spans="29:29">
+    <row r="200" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC200"/>
     </row>
-    <row r="201" spans="29:29">
+    <row r="201" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC201"/>
     </row>
-    <row r="202" spans="29:29">
+    <row r="202" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC202"/>
     </row>
-    <row r="203" spans="29:29">
+    <row r="203" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC203"/>
     </row>
-    <row r="204" spans="29:29">
+    <row r="204" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC204"/>
     </row>
-    <row r="205" spans="29:29">
+    <row r="205" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC205"/>
     </row>
-    <row r="206" spans="29:29">
+    <row r="206" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC206"/>
     </row>
-    <row r="207" spans="29:29">
+    <row r="207" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC207"/>
     </row>
-    <row r="208" spans="29:29">
+    <row r="208" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC208"/>
     </row>
-    <row r="209" spans="29:29">
+    <row r="209" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC209"/>
     </row>
-    <row r="210" spans="29:29">
+    <row r="210" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC210"/>
     </row>
-    <row r="211" spans="29:29">
+    <row r="211" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC211"/>
     </row>
-    <row r="212" spans="29:29">
+    <row r="212" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC212"/>
     </row>
-    <row r="213" spans="29:29">
+    <row r="213" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC213"/>
     </row>
-    <row r="214" spans="29:29">
+    <row r="214" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC214"/>
     </row>
-    <row r="215" spans="29:29">
+    <row r="215" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC215"/>
     </row>
-    <row r="216" spans="29:29">
+    <row r="216" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC216"/>
     </row>
-    <row r="217" spans="29:29">
+    <row r="217" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC217"/>
     </row>
-    <row r="218" spans="29:29">
+    <row r="218" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC218"/>
     </row>
-    <row r="219" spans="29:29">
+    <row r="219" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC219"/>
     </row>
-    <row r="220" spans="29:29">
+    <row r="220" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC220"/>
     </row>
-    <row r="221" spans="29:29">
+    <row r="221" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC221"/>
     </row>
-    <row r="222" spans="29:29">
+    <row r="222" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC222"/>
     </row>
-    <row r="223" spans="29:29">
+    <row r="223" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC223"/>
     </row>
-    <row r="224" spans="29:29">
+    <row r="224" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC224"/>
     </row>
-    <row r="225" spans="29:29">
+    <row r="225" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC225"/>
     </row>
-    <row r="226" spans="29:29">
+    <row r="226" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC226"/>
     </row>
-    <row r="227" spans="29:29">
+    <row r="227" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC227"/>
     </row>
-    <row r="228" spans="29:29">
+    <row r="228" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC228"/>
     </row>
-    <row r="229" spans="29:29">
+    <row r="229" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC229"/>
     </row>
-    <row r="230" spans="29:29">
+    <row r="230" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC230"/>
     </row>
-    <row r="231" spans="29:29">
+    <row r="231" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC231"/>
     </row>
-    <row r="232" spans="29:29">
+    <row r="232" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC232"/>
     </row>
-    <row r="233" spans="29:29">
+    <row r="233" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC233"/>
     </row>
-    <row r="234" spans="29:29">
+    <row r="234" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC234"/>
     </row>
-    <row r="235" spans="29:29">
+    <row r="235" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC235"/>
     </row>
-    <row r="236" spans="29:29">
+    <row r="236" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC236"/>
     </row>
-    <row r="237" spans="29:29">
+    <row r="237" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC237"/>
     </row>
-    <row r="238" spans="29:29">
+    <row r="238" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC238"/>
     </row>
-    <row r="239" spans="29:29">
+    <row r="239" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC239"/>
     </row>
-    <row r="240" spans="29:29">
+    <row r="240" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC240"/>
     </row>
-    <row r="241" spans="29:29">
+    <row r="241" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC241"/>
     </row>
-    <row r="242" spans="29:29">
+    <row r="242" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC242"/>
     </row>
-    <row r="243" spans="29:29">
+    <row r="243" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC243"/>
     </row>
-    <row r="244" spans="29:29">
+    <row r="244" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC244"/>
     </row>
-    <row r="245" spans="29:29">
+    <row r="245" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC245"/>
     </row>
-    <row r="246" spans="29:29">
+    <row r="246" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC246"/>
     </row>
-    <row r="247" spans="29:29">
+    <row r="247" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC247"/>
     </row>
-    <row r="248" spans="29:29">
+    <row r="248" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC248"/>
     </row>
-    <row r="249" spans="29:29">
+    <row r="249" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC249"/>
     </row>
-    <row r="250" spans="29:29">
+    <row r="250" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC250"/>
     </row>
-    <row r="251" spans="29:29">
+    <row r="251" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC251"/>
     </row>
-    <row r="252" spans="29:29">
+    <row r="252" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC252"/>
     </row>
-    <row r="253" spans="29:29">
+    <row r="253" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC253"/>
     </row>
-    <row r="254" spans="29:29">
+    <row r="254" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC254"/>
     </row>
-    <row r="255" spans="29:29">
+    <row r="255" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC255"/>
     </row>
-    <row r="256" spans="29:29">
+    <row r="256" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC256"/>
     </row>
-    <row r="257" spans="29:29">
+    <row r="257" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC257"/>
     </row>
-    <row r="258" spans="29:29">
+    <row r="258" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC258"/>
     </row>
-    <row r="259" spans="29:29">
+    <row r="259" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC259"/>
     </row>
-    <row r="260" spans="29:29">
+    <row r="260" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC260"/>
     </row>
-    <row r="261" spans="29:29">
+    <row r="261" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC261"/>
     </row>
-    <row r="262" spans="29:29">
+    <row r="262" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC262"/>
     </row>
-    <row r="263" spans="29:29">
+    <row r="263" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC263"/>
     </row>
-    <row r="264" spans="29:29">
+    <row r="264" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC264"/>
     </row>
-    <row r="265" spans="29:29">
+    <row r="265" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC265"/>
     </row>
-    <row r="266" spans="29:29">
+    <row r="266" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC266"/>
     </row>
-    <row r="267" spans="29:29">
+    <row r="267" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC267"/>
     </row>
-    <row r="268" spans="29:29">
+    <row r="268" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC268"/>
     </row>
-    <row r="269" spans="29:29">
+    <row r="269" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC269"/>
     </row>
   </sheetData>
@@ -42690,21 +42698,21 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="21" width="9.1640625" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="21" width="9.125" customWidth="1"/>
+    <col min="22" max="22" width="10.375" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="95" customWidth="1"/>
     <col min="26" max="26" width="17" customWidth="1"/>
     <col min="27" max="27" width="4.5" style="95" customWidth="1"/>
     <col min="28" max="28" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18" customHeight="1">
+    <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
       <c r="C1" s="188" t="s">
@@ -42732,7 +42740,7 @@
       <c r="U1" s="189"/>
       <c r="V1" s="189"/>
     </row>
-    <row r="2" spans="1:31" ht="18" customHeight="1">
+    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="74"/>
       <c r="C2" s="191"/>
@@ -42759,7 +42767,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="74"/>
       <c r="B3" s="75"/>
       <c r="C3" s="76" t="s">
@@ -42825,7 +42833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4" s="78">
         <v>1</v>
       </c>
@@ -42920,7 +42928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="78">
         <v>2</v>
       </c>
@@ -43015,7 +43023,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="78">
         <v>3</v>
       </c>
@@ -43110,7 +43118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" s="78">
         <v>4</v>
       </c>
@@ -43199,7 +43207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8" s="78">
         <v>5</v>
       </c>
@@ -43288,7 +43296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9" s="78">
         <v>6</v>
       </c>
@@ -43377,7 +43385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10" s="78">
         <v>7</v>
       </c>
@@ -43466,7 +43474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11" s="78">
         <v>8</v>
       </c>
@@ -43555,7 +43563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" s="78">
         <v>9</v>
       </c>
@@ -43644,7 +43652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" s="78">
         <v>10</v>
       </c>
@@ -43733,7 +43741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" s="78">
         <v>11</v>
       </c>
@@ -43822,7 +43830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15" s="78">
         <v>12</v>
       </c>
@@ -43911,7 +43919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" s="78">
         <v>13</v>
       </c>
@@ -43994,7 +44002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="78">
         <v>14</v>
       </c>
@@ -44071,7 +44079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="78">
         <v>15</v>
       </c>
@@ -44148,7 +44156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="78">
         <v>16</v>
       </c>
@@ -44225,7 +44233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="17" customHeight="1">
+    <row r="20" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="78">
         <v>17</v>
       </c>
@@ -44302,7 +44310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="78">
         <v>18</v>
       </c>
@@ -44379,7 +44387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="78">
         <v>19</v>
       </c>
@@ -44456,7 +44464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="78">
         <v>20</v>
       </c>
@@ -44533,7 +44541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="78">
         <v>20</v>
       </c>
@@ -44610,7 +44618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="78">
         <v>22</v>
       </c>
@@ -44687,7 +44695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="78">
         <v>23</v>
       </c>
@@ -44764,7 +44772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="78">
         <v>24</v>
       </c>
@@ -44841,7 +44849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="78">
         <v>25</v>
       </c>
@@ -44918,7 +44926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="78"/>
       <c r="B29" s="78"/>
       <c r="C29" s="83"/>
@@ -44960,19 +44968,19 @@
       <selection activeCell="E30" sqref="E30:J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="22" customHeight="1">
+    <row r="1" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="2:23" ht="22" customHeight="1">
+    <row r="2" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>96</v>
       </c>
@@ -45020,7 +45028,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="2:23" ht="22" customHeight="1">
+    <row r="3" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -45074,7 +45082,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="2:23" ht="22" customHeight="1">
+    <row r="4" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -45122,7 +45130,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="2:23" ht="22" customHeight="1">
+    <row r="5" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -45170,7 +45178,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="2:23" ht="22" customHeight="1">
+    <row r="6" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -45218,7 +45226,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="2:23" ht="22" customHeight="1">
+    <row r="7" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -45266,7 +45274,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="2:23" ht="22" customHeight="1">
+    <row r="8" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -45308,7 +45316,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="2:23" ht="22" customHeight="1">
+    <row r="9" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -45350,7 +45358,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="2:23" ht="22" customHeight="1">
+    <row r="10" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -45392,7 +45400,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="2:23" ht="22" customHeight="1">
+    <row r="11" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>98</v>
       </c>
@@ -45438,7 +45446,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="2:23" ht="22" customHeight="1">
+    <row r="12" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -45486,7 +45494,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="2:23" ht="22" customHeight="1">
+    <row r="13" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -45534,7 +45542,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="2:23" ht="22" customHeight="1">
+    <row r="14" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -45582,7 +45590,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="2:23" ht="22" customHeight="1">
+    <row r="15" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -45630,7 +45638,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="2:23" ht="22" customHeight="1">
+    <row r="16" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -45678,7 +45686,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="5:23" ht="22" customHeight="1">
+    <row r="17" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -45720,7 +45728,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="5:23" ht="22" customHeight="1">
+    <row r="18" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -45762,7 +45770,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="5:23" ht="22" customHeight="1">
+    <row r="19" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -45804,7 +45812,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="5:23" ht="22" customHeight="1">
+    <row r="20" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -45846,7 +45854,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="5:23" ht="22" customHeight="1">
+    <row r="21" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -45888,7 +45896,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="5:23" ht="22" customHeight="1">
+    <row r="22" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -45930,7 +45938,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="5:23" ht="22" customHeight="1">
+    <row r="23" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -45972,7 +45980,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="5:23" ht="22" customHeight="1">
+    <row r="24" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -46014,7 +46022,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="5:23" ht="22" customHeight="1">
+    <row r="25" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -46056,7 +46064,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="5:23" ht="22" customHeight="1">
+    <row r="26" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -46098,7 +46106,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="5:23" ht="22" customHeight="1">
+    <row r="27" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -46140,7 +46148,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="5:23" ht="22" customHeight="1">
+    <row r="28" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
@@ -46168,13 +46176,13 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="5:23" ht="22" customHeight="1">
+    <row r="29" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="5:23" ht="22" customHeight="1">
+    <row r="30" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="38"/>
       <c r="F30" s="50" t="s">
         <v>94</v>
@@ -46196,7 +46204,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="5:23" ht="22" customHeight="1">
+    <row r="31" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="48" t="s">
         <v>18</v>
       </c>
@@ -46220,7 +46228,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="5:23" ht="22" customHeight="1">
+    <row r="32" spans="5:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" s="48" t="s">
         <v>19</v>
       </c>
@@ -46244,7 +46252,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="5:10" ht="22" customHeight="1">
+    <row r="33" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" s="48" t="s">
         <v>42</v>
       </c>
@@ -46264,7 +46272,7 @@
         <v>5.6806049936963331E-2</v>
       </c>
     </row>
-    <row r="34" spans="5:10" ht="22" customHeight="1">
+    <row r="34" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E34" s="48" t="s">
         <v>20</v>
       </c>
@@ -46284,7 +46292,7 @@
         <v>3.2488466502742563E-2</v>
       </c>
     </row>
-    <row r="35" spans="5:10" ht="22" customHeight="1">
+    <row r="35" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E35" s="48" t="s">
         <v>73</v>
       </c>
@@ -46304,7 +46312,7 @@
         <v>0.12008621383259163</v>
       </c>
     </row>
-    <row r="36" spans="5:10" ht="22" customHeight="1">
+    <row r="36" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E36" s="48" t="s">
         <v>41</v>
       </c>
@@ -46324,7 +46332,7 @@
         <v>3.6970993808140507E-2</v>
       </c>
     </row>
-    <row r="37" spans="5:10" ht="22" customHeight="1">
+    <row r="37" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E37" s="48" t="s">
         <v>22</v>
       </c>
@@ -46344,7 +46352,7 @@
         <v>5.7014808560667422E-2</v>
       </c>
     </row>
-    <row r="38" spans="5:10" ht="22" customHeight="1">
+    <row r="38" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" s="48" t="s">
         <v>23</v>
       </c>
@@ -46364,7 +46372,7 @@
         <v>5.7014808560667422E-2</v>
       </c>
     </row>
-    <row r="39" spans="5:10" ht="22" customHeight="1">
+    <row r="39" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E39" s="48" t="s">
         <v>24</v>
       </c>
@@ -46384,7 +46392,7 @@
         <v>2.7267920351207911E-2</v>
       </c>
     </row>
-    <row r="40" spans="5:10" ht="22" customHeight="1">
+    <row r="40" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="48" t="s">
         <v>25</v>
       </c>
@@ -46404,7 +46412,7 @@
         <v>2.8549420693890541E-2</v>
       </c>
     </row>
-    <row r="41" spans="5:10" ht="22" customHeight="1">
+    <row r="41" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E41" s="48" t="s">
         <v>26</v>
       </c>
@@ -46424,7 +46432,7 @@
         <v>6.4861685664030208E-2</v>
       </c>
     </row>
-    <row r="42" spans="5:10" ht="22" customHeight="1">
+    <row r="42" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="48" t="s">
         <v>27</v>
       </c>
@@ -46444,7 +46452,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="43" spans="5:10" ht="22" customHeight="1">
+    <row r="43" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E43" s="48" t="s">
         <v>28</v>
       </c>
@@ -46464,7 +46472,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="44" spans="5:10" ht="22" customHeight="1">
+    <row r="44" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" s="48" t="s">
         <v>29</v>
       </c>
@@ -46484,7 +46492,7 @@
         <v>3.0455326264648162E-2</v>
       </c>
     </row>
-    <row r="45" spans="5:10" ht="22" customHeight="1">
+    <row r="45" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="48" t="s">
         <v>40</v>
       </c>
@@ -46504,7 +46512,7 @@
         <v>1.9367182084281374E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:10" ht="22" customHeight="1">
+    <row r="46" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E46" s="48" t="s">
         <v>30</v>
       </c>
@@ -46524,7 +46532,7 @@
         <v>5.9572777504053702E-2</v>
       </c>
     </row>
-    <row r="47" spans="5:10" ht="22" customHeight="1">
+    <row r="47" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E47" s="48" t="s">
         <v>31</v>
       </c>
@@ -46544,7 +46552,7 @@
         <v>2.0142180360787174E-2</v>
       </c>
     </row>
-    <row r="48" spans="5:10" ht="22" customHeight="1">
+    <row r="48" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E48" s="48" t="s">
         <v>32</v>
       </c>
@@ -46564,7 +46572,7 @@
         <v>2.8158036924280792E-2</v>
       </c>
     </row>
-    <row r="49" spans="5:10" ht="22" customHeight="1">
+    <row r="49" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E49" s="48" t="s">
         <v>33</v>
       </c>
@@ -46584,7 +46592,7 @@
         <v>2.7038889959773341E-2</v>
       </c>
     </row>
-    <row r="50" spans="5:10" ht="22" customHeight="1">
+    <row r="50" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E50" s="48" t="s">
         <v>34</v>
       </c>
@@ -46604,7 +46612,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="51" spans="5:10" ht="22" customHeight="1">
+    <row r="51" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E51" s="48" t="s">
         <v>35</v>
       </c>
@@ -46624,7 +46632,7 @@
         <v>1.4715876078149176E-2</v>
       </c>
     </row>
-    <row r="52" spans="5:10" ht="22" customHeight="1">
+    <row r="52" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E52" s="48" t="s">
         <v>36</v>
       </c>
@@ -46644,7 +46652,7 @@
         <v>2.6088404580157713E-2</v>
       </c>
     </row>
-    <row r="53" spans="5:10" ht="22" customHeight="1">
+    <row r="53" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E53" s="48" t="s">
         <v>37</v>
       </c>
@@ -46664,7 +46672,7 @@
         <v>2.0142180360787174E-2</v>
       </c>
     </row>
-    <row r="54" spans="5:10" ht="22" customHeight="1">
+    <row r="54" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E54" s="48" t="s">
         <v>38</v>
       </c>
@@ -46684,7 +46692,7 @@
         <v>2.6088404580157713E-2</v>
       </c>
     </row>
-    <row r="55" spans="5:10" ht="22" customHeight="1">
+    <row r="55" spans="5:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" s="48" t="s">
         <v>39</v>
       </c>
@@ -46710,6 +46718,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -46721,13 +46730,13 @@
       <selection activeCell="O3" sqref="O3:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>79</v>
       </c>
@@ -46771,7 +46780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -46821,7 +46830,7 @@
         <v>0.7360848980706699</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -46865,7 +46874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -46909,7 +46918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -46953,7 +46962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -46997,7 +47006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -47035,7 +47044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -47073,7 +47082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -47111,7 +47120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="56" customHeight="1">
+    <row r="11" spans="2:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>99</v>
       </c>
@@ -47153,7 +47162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="26">
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -47197,7 +47206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26">
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -47241,7 +47250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="26">
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -47285,7 +47294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="26">
+    <row r="15" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -47329,7 +47338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="26">
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -47373,7 +47382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -47411,7 +47420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -47449,7 +47458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -47487,7 +47496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -47525,7 +47534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -47563,7 +47572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -47601,7 +47610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -47639,7 +47648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -47677,7 +47686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -47715,7 +47724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -47753,7 +47762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -47791,7 +47800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
@@ -47832,13 +47841,13 @@
       <selection activeCell="J4" sqref="J4:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>100</v>
       </c>
@@ -47882,7 +47891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -47932,7 +47941,7 @@
         <v>0.70492786534810192</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -47976,7 +47985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -48020,7 +48029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -48064,7 +48073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -48108,7 +48117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -48146,7 +48155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -48184,7 +48193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -48222,7 +48231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="56" customHeight="1">
+    <row r="11" spans="2:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>102</v>
       </c>
@@ -48264,7 +48273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="26">
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -48308,7 +48317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26">
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -48352,7 +48361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="26">
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -48396,7 +48405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="26">
+    <row r="15" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -48440,7 +48449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="26">
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -48484,7 +48493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -48522,7 +48531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -48560,7 +48569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -48598,7 +48607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -48636,7 +48645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -48674,7 +48683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -48712,7 +48721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -48750,7 +48759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -48788,7 +48797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -48826,7 +48835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -48864,7 +48873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -48902,7 +48911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
@@ -48939,17 +48948,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J4" sqref="J4:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>61</v>
       </c>
@@ -48993,7 +49002,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -49043,7 +49052,7 @@
         <v>0.67299190680746956</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -49087,7 +49096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -49131,7 +49140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -49175,7 +49184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -49219,7 +49228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -49257,7 +49266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -49295,7 +49304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -49333,7 +49342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="56" customHeight="1">
+    <row r="11" spans="2:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>80</v>
       </c>
@@ -49375,7 +49384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="26">
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -49419,7 +49428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26">
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -49463,7 +49472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="26">
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -49507,7 +49516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="26">
+    <row r="15" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -49551,7 +49560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="26">
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -49595,7 +49604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -49633,7 +49642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -49671,7 +49680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -49709,7 +49718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -49747,7 +49756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -49785,7 +49794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -49823,7 +49832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -49861,7 +49870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -49899,7 +49908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -49937,7 +49946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -49975,7 +49984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -50013,7 +50022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
@@ -50056,13 +50065,13 @@
       <selection activeCell="J4" sqref="J4:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>77</v>
       </c>
@@ -50106,7 +50115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -50156,7 +50165,7 @@
         <v>0.62703528354168192</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -50200,7 +50209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -50244,7 +50253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -50288,7 +50297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -50332,7 +50341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -50370,7 +50379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -50408,7 +50417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -50446,7 +50455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="56" customHeight="1">
+    <row r="11" spans="2:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>104</v>
       </c>
@@ -50488,7 +50497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="26">
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -50532,7 +50541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26">
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -50576,7 +50585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="26">
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -50620,7 +50629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="26">
+    <row r="15" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -50664,7 +50673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="26">
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -50708,7 +50717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -50746,7 +50755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -50784,7 +50793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -50822,7 +50831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -50860,7 +50869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -50898,7 +50907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -50936,7 +50945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -50974,7 +50983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -51012,7 +51021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -51050,7 +51059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -51088,7 +51097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -51126,7 +51135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
@@ -51168,13 +51177,13 @@
       <selection activeCell="J4" sqref="J4:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="40" t="s">
         <v>74</v>
       </c>
@@ -51218,7 +51227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
@@ -51268,7 +51277,7 @@
         <v>0.69246505225907451</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
         <v>81</v>
       </c>
@@ -51312,7 +51321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>75</v>
       </c>
@@ -51356,7 +51365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -51400,7 +51409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
@@ -51444,7 +51453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E8" s="48" t="s">
         <v>73</v>
       </c>
@@ -51482,7 +51491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E9" s="48" t="s">
         <v>41</v>
       </c>
@@ -51520,7 +51529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
@@ -51558,7 +51567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="56" customHeight="1">
+    <row r="11" spans="2:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="192" t="s">
         <v>106</v>
       </c>
@@ -51600,7 +51609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="26">
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B12" s="159" t="s">
         <v>10</v>
       </c>
@@ -51644,7 +51653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26">
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B13" s="161" t="s">
         <v>81</v>
       </c>
@@ -51688,7 +51697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="26">
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B14" s="161" t="s">
         <v>75</v>
       </c>
@@ -51732,7 +51741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="26">
+    <row r="15" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B15" s="161" t="s">
         <v>76</v>
       </c>
@@ -51776,7 +51785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="26">
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B16" s="163" t="s">
         <v>82</v>
       </c>
@@ -51820,7 +51829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
@@ -51858,7 +51867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
@@ -51896,7 +51905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="48" t="s">
         <v>30</v>
       </c>
@@ -51934,7 +51943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="48" t="s">
         <v>31</v>
       </c>
@@ -51972,7 +51981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
@@ -52010,7 +52019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="48" t="s">
         <v>33</v>
       </c>
@@ -52048,7 +52057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="48" t="s">
         <v>34</v>
       </c>
@@ -52086,7 +52095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="48" t="s">
         <v>35</v>
       </c>
@@ -52124,7 +52133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="48" t="s">
         <v>36</v>
       </c>
@@ -52162,7 +52171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="48" t="s">
         <v>37</v>
       </c>
@@ -52200,7 +52209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="48" t="s">
         <v>38</v>
       </c>
@@ -52238,7 +52247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="48" t="s">
         <v>39</v>
       </c>
